--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{467B8195-8F7E-473F-A4BA-C144C57DDBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4EF30D-84BB-5741-BC44-A1D3D2144BD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729956A-2172-F947-AB4E-06823344C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="940" windowWidth="35380" windowHeight="21640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="940" windowWidth="35380" windowHeight="21640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Height</t>
   </si>
@@ -74,24 +74,6 @@
     <t>identified gender (male/female/other)</t>
   </si>
   <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>BMI is a numerical measure of an individual's body mass calculated from their weight and height</t>
-  </si>
-  <si>
-    <t>BMICAT</t>
-  </si>
-  <si>
-    <t>BMICAT represents the categorical classification of individuals based on their Body Mass Index (BMI)</t>
-  </si>
-  <si>
-    <t>"Underweight": BMI &lt; 18.5
-"Normal Weight": 18.5 &lt;= BMI &lt; 25
-"Overweight": 25 &lt;= BMI &lt; 30
-"Obesity": BMI &gt;= 30</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -108,6 +90,18 @@
   </si>
   <si>
     <t>Graduate</t>
+  </si>
+  <si>
+    <t>age in complete years</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level of education </t>
+  </si>
+  <si>
+    <t>Highschool,college, undergrate, Graduate</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -476,10 +470,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -496,7 +490,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -513,7 +507,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,7 +524,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,7 +541,7 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -564,7 +558,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -581,7 +575,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -598,7 +592,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -615,7 +609,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -632,7 +626,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -649,7 +643,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,7 +657,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,7 +691,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -726,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,21 +780,21 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -819,6 +813,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="e3b1676e-f667-438e-893d-cb04b311f346" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010093A5F9A029148A4EBCB006CAE1D64BB0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b77b9c52c0ff25a89b055ab00881b595">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e3b1676e-f667-438e-893d-cb04b311f346" xmlns:ns4="eeaf2bdc-5f2b-4e0a-9255-c018dcc5488a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7599683d23761b1bb0c1ebb20061c5d4" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1082,16 +1086,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="e3b1676e-f667-438e-893d-cb04b311f346" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1102,6 +1096,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEB28A1F-557E-4DB0-96B7-5ABC2156427E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eeaf2bdc-5f2b-4e0a-9255-c018dcc5488a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e3b1676e-f667-438e-893d-cb04b311f346"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DCF06B-1466-4339-B6E5-B10BB8A80156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1121,24 +1133,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEB28A1F-557E-4DB0-96B7-5ABC2156427E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eeaf2bdc-5f2b-4e0a-9255-c018dcc5488a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e3b1676e-f667-438e-893d-cb04b311f346"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55671CD-2998-4442-82A1-A91793A53477}">
   <ds:schemaRefs>
